--- a/data/trans_orig/IP16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09845796-1926-4B25-9D49-D9FBDE20D295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C3F9EE-3DF2-41C6-9586-5DDAB0CBA0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9874C1AC-89EA-435D-A21C-E075CF640252}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27C198B2-E1A5-481D-8718-432D0A8E3825}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="286">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -104,49 +104,49 @@
     <t>8,21%</t>
   </si>
   <si>
-    <t>28,58%</t>
+    <t>25,13%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>71,42%</t>
+    <t>74,87%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>91,33%</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -155,55 +155,55 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -212,73 +212,67 @@
     <t>12,81%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>11,35%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>87,19%</t>
   </si>
   <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>88,65%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>94,9%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>15,89%</t>
@@ -287,607 +281,619 @@
     <t>12,48%</t>
   </si>
   <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>13,36%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>92,62%</t>
@@ -1302,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BB9144-0A14-4F84-A85C-A3DF2D90A997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405AA38-D886-42DE-A81A-95C61058ACDC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1921,7 +1927,7 @@
         <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1942,13 @@
         <v>30749</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -1951,13 +1957,13 @@
         <v>20504</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -1966,13 +1972,13 @@
         <v>51253</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2046,13 @@
         <v>23411</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2055,13 +2061,13 @@
         <v>19366</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2070,13 +2076,13 @@
         <v>42776</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2097,13 @@
         <v>120508</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>163</v>
@@ -2106,13 +2112,13 @@
         <v>105939</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -2121,13 +2127,13 @@
         <v>226448</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,7 +2189,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203A2451-CCE8-4C6C-973E-FB3C5A4994A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15A684C-C303-44B9-9B99-F72E51AC99C7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2220,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2464,13 +2470,13 @@
         <v>1359</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2479,13 +2485,13 @@
         <v>2159</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2494,13 +2500,13 @@
         <v>3517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,10 +2521,10 @@
         <v>16141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2530,13 +2536,13 @@
         <v>20422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -2545,13 +2551,13 @@
         <v>36564</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2625,13 @@
         <v>12605</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2634,13 +2640,13 @@
         <v>12237</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2649,13 +2655,13 @@
         <v>24842</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2676,13 @@
         <v>88429</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -2685,13 +2691,13 @@
         <v>75999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -2700,13 +2706,13 @@
         <v>164428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2780,13 @@
         <v>6080</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2789,13 +2795,13 @@
         <v>3363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2804,13 +2810,13 @@
         <v>9443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2831,13 @@
         <v>33353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -2840,13 +2846,13 @@
         <v>33041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -2855,13 +2861,13 @@
         <v>66393</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2935,13 @@
         <v>20044</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -2944,13 +2950,13 @@
         <v>17758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -2959,13 +2965,13 @@
         <v>37802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2986,13 @@
         <v>137922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -2995,13 +3001,13 @@
         <v>129463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>381</v>
@@ -3010,13 +3016,13 @@
         <v>267385</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3078,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA3FE65-56B8-440D-B6A4-8CE61D726BC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A062EE-5EC5-45BA-85AC-531DC1541396}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3109,7 +3115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3353,13 +3359,13 @@
         <v>791</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3374,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3383,13 +3389,13 @@
         <v>791</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,10 +3410,10 @@
         <v>7995</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3422,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3434,10 +3440,10 @@
         <v>23686</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3508,13 +3514,13 @@
         <v>14752</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3523,13 +3529,13 @@
         <v>13011</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3538,10 +3544,10 @@
         <v>27763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>177</v>
@@ -3589,13 +3595,13 @@
         <v>140836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3669,13 @@
         <v>2732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3678,13 +3684,13 @@
         <v>4613</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3693,13 +3699,13 @@
         <v>7344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3720,13 @@
         <v>26138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -3729,13 +3735,13 @@
         <v>24179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -3744,13 +3750,13 @@
         <v>50317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3824,13 @@
         <v>18275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -3833,13 +3839,13 @@
         <v>17623</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3848,13 +3854,13 @@
         <v>35898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3875,13 @@
         <v>105001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -3884,13 +3890,13 @@
         <v>109838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -3899,13 +3905,13 @@
         <v>214839</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,7 +3967,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3981,7 +3987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DEDC7D-6E1D-453A-83F9-344AECEBBF8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618B3583-9B6F-441F-A0B4-75026ABD34D0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,7 +4004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4242,13 +4248,13 @@
         <v>1598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4263,7 +4269,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4272,13 +4278,13 @@
         <v>1598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,10 +4299,10 @@
         <v>12768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4311,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4323,10 +4329,10 @@
         <v>24584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4397,13 +4403,13 @@
         <v>12785</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4412,13 +4418,13 @@
         <v>10338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -4427,13 +4433,13 @@
         <v>23123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4454,13 @@
         <v>101632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>130</v>
@@ -4463,13 +4469,13 @@
         <v>90903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>288</v>
@@ -4478,13 +4484,13 @@
         <v>192535</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4558,13 @@
         <v>3569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4567,13 +4573,13 @@
         <v>4713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4582,13 +4588,13 @@
         <v>8282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4609,13 @@
         <v>40185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -4618,13 +4624,13 @@
         <v>36642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -4633,13 +4639,13 @@
         <v>76827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4713,13 @@
         <v>17951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4722,13 +4728,13 @@
         <v>15051</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -4737,13 +4743,13 @@
         <v>33002</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4764,13 @@
         <v>154586</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -4773,13 +4779,13 @@
         <v>139361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
@@ -4788,13 +4794,13 @@
         <v>293946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4856,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C3F9EE-3DF2-41C6-9586-5DDAB0CBA0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6C5B46-9CBD-4546-A0EF-0398EA07CE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27C198B2-E1A5-481D-8718-432D0A8E3825}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F86C3D6-0CF1-482F-BE5A-FFED9870A129}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="290">
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,835 +68,847 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido medicamentos para la alergia en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
     <t>82,77%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>83,53%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la alergia en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8405AA38-D886-42DE-A81A-95C61058ACDC}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3084E9-07E1-4512-B569-AE6EF1343B62}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1426,10 +1438,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1441,81 +1453,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1663</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>20041</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18595</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>38636</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,151 +1540,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>1663</v>
+        <v>15313</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>2007</v>
+        <v>17231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>3669</v>
+        <v>32544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7">
-        <v>18595</v>
+        <v>65394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7">
-        <v>20041</v>
+        <v>70438</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="N8" s="7">
-        <v>38636</v>
+        <v>135832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,153 +1695,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>17231</v>
+        <v>2047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>15313</v>
+        <v>4517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>32544</v>
+        <v>6563</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>70438</v>
+        <v>20504</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7">
-        <v>101</v>
-      </c>
       <c r="I11" s="7">
-        <v>65394</v>
+        <v>30749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="N11" s="7">
-        <v>135832</v>
+        <v>51253</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,153 +1850,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>4517</v>
+        <v>19366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>2047</v>
+        <v>23411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
         <v>61</v>
       </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
       <c r="N13" s="7">
-        <v>6563</v>
+        <v>42776</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>30749</v>
+        <v>105939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="I14" s="7">
-        <v>20504</v>
+        <v>119782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="N14" s="7">
-        <v>51253</v>
+        <v>225722</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,216 +2005,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
+        <v>404</v>
+      </c>
+      <c r="N15" s="7">
+        <v>268498</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="N15" s="7">
-        <v>57816</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7">
-        <v>23411</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19366</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="7">
-        <v>61</v>
-      </c>
-      <c r="N16" s="7">
-        <v>42776</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>181</v>
-      </c>
-      <c r="D17" s="7">
-        <v>120508</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="7">
-        <v>163</v>
-      </c>
-      <c r="I17" s="7">
-        <v>105939</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="7">
-        <v>344</v>
-      </c>
-      <c r="N17" s="7">
-        <v>226448</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2209,8 +2071,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15A684C-C303-44B9-9B99-F72E51AC99C7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1586894-581F-44D1-9431-2FCD37BE4B7F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2226,7 +2088,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2327,88 +2189,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2159</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1359</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3517</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20422</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16141</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="N5" s="7">
+        <v>36564</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,147 +2291,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22581</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>17500</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="N6" s="7">
+        <v>40081</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>1359</v>
+        <v>12237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>2159</v>
+        <v>12605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>3517</v>
+        <v>24842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7">
-        <v>16141</v>
+        <v>75999</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7">
-        <v>20422</v>
+        <v>88429</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="N8" s="7">
-        <v>36564</v>
+        <v>164428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,153 +2446,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>17500</v>
+        <v>88236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="I9" s="7">
-        <v>22581</v>
+        <v>101034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="N9" s="7">
-        <v>40081</v>
+        <v>189270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>12605</v>
+        <v>3363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>12237</v>
+        <v>6080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>24842</v>
+        <v>9443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>88429</v>
+        <v>33041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>75999</v>
+        <v>33353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="N11" s="7">
-        <v>164428</v>
+        <v>66393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,153 +2601,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>88236</v>
+        <v>39433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N12" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>6080</v>
+        <v>17758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>3363</v>
+        <v>20044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N13" s="7">
-        <v>9443</v>
+        <v>37802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>33353</v>
+        <v>129463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>33041</v>
+        <v>137922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="N14" s="7">
-        <v>66393</v>
+        <v>267385</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,216 +2756,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>39433</v>
+        <v>147221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>36404</v>
+        <v>157966</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>434</v>
       </c>
       <c r="N15" s="7">
-        <v>75836</v>
+        <v>305187</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7">
-        <v>20044</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="7">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17758</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" s="7">
-        <v>53</v>
-      </c>
-      <c r="N16" s="7">
-        <v>37802</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>194</v>
-      </c>
-      <c r="D17" s="7">
-        <v>137922</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="7">
-        <v>187</v>
-      </c>
-      <c r="I17" s="7">
-        <v>129463</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M17" s="7">
-        <v>381</v>
-      </c>
-      <c r="N17" s="7">
-        <v>267385</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>222</v>
-      </c>
-      <c r="D18" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147221</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>434</v>
-      </c>
-      <c r="N18" s="7">
-        <v>305187</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3098,8 +2822,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A062EE-5EC5-45BA-85AC-531DC1541396}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BB2C27-5161-43A3-85F9-2E709BD0D340}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3115,7 +2839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3218,86 +2942,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>791</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>791</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15691</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7995</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23686</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,147 +3042,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15691</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8786</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24477</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>791</v>
+        <v>13011</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>14752</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>791</v>
+        <v>27763</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7">
-        <v>7995</v>
+        <v>69968</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I8" s="7">
-        <v>15691</v>
+        <v>70868</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="N8" s="7">
-        <v>23686</v>
+        <v>140836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,153 +3197,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N9" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>14752</v>
+        <v>4613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>13011</v>
+        <v>2732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>27763</v>
+        <v>7344</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>70868</v>
+        <v>24179</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>69968</v>
+        <v>26138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>140836</v>
+        <v>50317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,153 +3352,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>2732</v>
+        <v>17623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>4613</v>
+        <v>18275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>7344</v>
+        <v>35898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>26138</v>
+        <v>109838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="I14" s="7">
-        <v>24179</v>
+        <v>105001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="N14" s="7">
-        <v>50317</v>
+        <v>214839</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,216 +3507,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7">
-        <v>18275</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17623</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M16" s="7">
-        <v>50</v>
-      </c>
-      <c r="N16" s="7">
-        <v>35898</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>153</v>
-      </c>
-      <c r="D17" s="7">
-        <v>105001</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="7">
-        <v>168</v>
-      </c>
-      <c r="I17" s="7">
-        <v>109838</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M17" s="7">
-        <v>321</v>
-      </c>
-      <c r="N17" s="7">
-        <v>214839</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>179</v>
-      </c>
-      <c r="D18" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>371</v>
-      </c>
-      <c r="N18" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3987,8 +3573,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618B3583-9B6F-441F-A0B4-75026ABD34D0}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835FF7DE-2569-4EC0-A0E8-707D6DEEBDF8}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4004,7 +3590,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4107,86 +3693,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1655</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1655</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15230</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>14012</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N5" s="7">
+        <v>29242</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,147 +3793,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30897</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>1598</v>
+        <v>10312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>13265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>1598</v>
+        <v>23577</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7">
-        <v>12768</v>
+        <v>110531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>11816</v>
+        <v>106759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="N8" s="7">
-        <v>24584</v>
+        <v>217290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,153 +3948,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>12785</v>
+        <v>4674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>10338</v>
+        <v>3689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>23123</v>
+        <v>8363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>101632</v>
+        <v>36968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>90903</v>
+        <v>42822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="N11" s="7">
-        <v>192535</v>
+        <v>79790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,153 +4103,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>3569</v>
+        <v>14986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>4713</v>
+        <v>18609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>8282</v>
+        <v>33595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>40185</v>
+        <v>162729</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="I14" s="7">
-        <v>36642</v>
+        <v>163592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
+        <v>433</v>
       </c>
       <c r="N14" s="7">
-        <v>76827</v>
+        <v>326321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,216 +4258,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>23</v>
-      </c>
-      <c r="D16" s="7">
-        <v>17951</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15051</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M16" s="7">
-        <v>43</v>
-      </c>
-      <c r="N16" s="7">
-        <v>33002</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>227</v>
-      </c>
-      <c r="D17" s="7">
-        <v>154586</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="7">
-        <v>206</v>
-      </c>
-      <c r="I17" s="7">
-        <v>139361</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M17" s="7">
-        <v>433</v>
-      </c>
-      <c r="N17" s="7">
-        <v>293946</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>476</v>
-      </c>
-      <c r="N18" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
